--- a/biology/Botanique/Liste_des_forêts_de_Genève/Liste_des_forêts_de_Genève.xlsx
+++ b/biology/Botanique/Liste_des_forêts_de_Genève/Liste_des_forêts_de_Genève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_de_Gen%C3%A8ve</t>
+          <t>Liste_des_forêts_de_Genève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article présente une liste des forêts du Canton de Genève. Le Canton de Genève compte 2 990,7 ha de bois et forêts pour une surface totale du canton de 28 248,4 ha[1]. Près de 45% des surfaces forestières du canton sont détenues par des privés[2]. La production annuelle de bois est de 8 000 m3, principalement vendu comme bois de chauffage[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article présente une liste des forêts du Canton de Genève. Le Canton de Genève compte 2 990,7 ha de bois et forêts pour une surface totale du canton de 28 248,4 ha. Près de 45% des surfaces forestières du canton sont détenues par des privés. La production annuelle de bois est de 8 000 m3, principalement vendu comme bois de chauffage.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_de_Gen%C3%A8ve</t>
+          <t>Liste_des_forêts_de_Genève</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Rive droite</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bois de Versoix
 Grand Bois
 Bois d'Avault
-Bois de Valavran[4]
+Bois de Valavran
 Bois des Pins
 Bois de la Foretaille
 Bois des Châtaigniers
 Bois de la Grille
-Bois des Frères[5]</t>
+Bois des Frères</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_de_Gen%C3%A8ve</t>
+          <t>Liste_des_forêts_de_Genève</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Rive gauche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bois d'Hermance[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bois d'Hermance
 Bois de Jussy
 Bois de la Bâtie</t>
         </is>
